--- a/src/main/java/com/tutorialsninja/qa/testdata/testDataExcel.xlsx
+++ b/src/main/java/com/tutorialsninja/qa/testdata/testDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Hybrid TestNG Framework\TutorialsNinjaProj\src\main\java\com\tutorialsninja\qa\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B333B78-BBAC-461A-8998-2DF7C99B88E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FC795D-C71D-4A1E-BE35-6DF67E1DCE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{945E2D64-E217-489B-A237-4C1AB6A8C7E4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{945E2D64-E217-489B-A237-4C1AB6A8C7E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -45,12 +45,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>saravanan.nyc@gmail.com</t>
-  </si>
-  <si>
-    <t>Dell@1234</t>
-  </si>
-  <si>
     <t>FirstName</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>Moorthy</t>
+  </si>
+  <si>
+    <t>saravanan.abcd@gmail.com</t>
+  </si>
+  <si>
+    <t>ABcd@1234</t>
   </si>
 </sst>
 </file>
@@ -451,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C55AF2-CDE9-4694-8F96-86E73AA11AA5}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,36 +471,36 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{14181867-96A3-436B-B618-D256074A8730}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{8620F527-6E33-4BB4-B6C3-163FEAA798FA}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{DEA66362-BE9E-46C3-8CDF-A3EF0EBA807F}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{409D14BD-0DFB-426E-9910-394512DD9EBB}"/>
-    <hyperlink ref="B3" r:id="rId5" xr:uid="{D4629651-B10C-4A91-9746-9F4E761718DF}"/>
-    <hyperlink ref="B4" r:id="rId6" xr:uid="{8FF8358E-FD17-4979-9DDA-F9EF7D58E3B4}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{EFC1F38D-6F9E-47A5-BB6E-3AA7FABFA5DF}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{5E90F7EF-FCF3-4907-97A9-A511EB7A37BA}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{68DF748F-3D63-404F-AA73-334D53F0D6AA}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{ECAB28F1-77FE-41E2-8870-3271BD736DD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71C88EA3-774E-4B27-B31C-8309543ADE3E}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -525,27 +525,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>9876543210</v>
